--- a/biology/Médecine/Manuel_Elkin_Patarroyo/Manuel_Elkin_Patarroyo.xlsx
+++ b/biology/Médecine/Manuel_Elkin_Patarroyo/Manuel_Elkin_Patarroyo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manuel Elkin Patarroyo, né le 3 novembre 1947[1] à Ataco, département du Tolima, est un pathologiste colombien. Il est connu pour avoir découvert le premier candidat vaccin synthétique contre le paludisme en 1986. Ce vaccin s'est finalement montré insuffisamment efficace.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manuel Elkin Patarroyo, né le 3 novembre 1947 à Ataco, département du Tolima, est un pathologiste colombien. Il est connu pour avoir découvert le premier candidat vaccin synthétique contre le paludisme en 1986. Ce vaccin s'est finalement montré insuffisamment efficace.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Jeunesse et éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Patarroyo dit avoir trouvé sa vocation à 8 ans, en lisant une biographie de Louis Pasteur en bande dessinée[2]. Il a suivi des études de médecine à l'Université nationale de la Colombie, puis a reçu une bourse pour aller à l'université Yale, et a obtenu son doctorat à l'université Rockefeller à New York[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patarroyo dit avoir trouvé sa vocation à 8 ans, en lisant une biographie de Louis Pasteur en bande dessinée. Il a suivi des études de médecine à l'Université nationale de la Colombie, puis a reçu une bourse pour aller à l'université Yale, et a obtenu son doctorat à l'université Rockefeller à New York.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Vaccin contre le paludisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 13 août 1987, Patarroyo publie dans la revue Nature les résultats du premier test humain d'un vaccin contre le paludisme, le SPf66[3] (ce nom venant du fait qu'il a nécessité 66 essais). Ce vaccin est aussi le premier vaccin synthétique, moins cher à produire qu'un vaccin ordinaire car sa fabrication ne nécessite pas de cultiver des organismes vivants[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 13 août 1987, Patarroyo publie dans la revue Nature les résultats du premier test humain d'un vaccin contre le paludisme, le SPf66 (ce nom venant du fait qu'il a nécessité 66 essais). Ce vaccin est aussi le premier vaccin synthétique, moins cher à produire qu'un vaccin ordinaire car sa fabrication ne nécessite pas de cultiver des organismes vivants.
 Patarroyo refuse de vendre le brevet à une entreprise pharmaceutique, proposant à la place de céder le vaccin à l'Organisation mondiale de la santé, à condition que celle-ci s'engage à le produire et le distribuer à prix coûtant.
 Mais en 1998, après davantage de tests de terrain, l'OMS conclut que l'efficacité du vaccin est de 35 % seulement et renonce à sa production.
-En 2007, Manuel Elkin Patarroyo travaille dans un laboratoire de Leticia[5], où il emploie des singes Aotus comme cobayes, ces singes étant les seuls animaux avec l'homme et le gorille à pouvoir contracter le paludisme.
+En 2007, Manuel Elkin Patarroyo travaille dans un laboratoire de Leticia, où il emploie des singes Aotus comme cobayes, ces singes étant les seuls animaux avec l'homme et le gorille à pouvoir contracter le paludisme.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lauréat du prix Prince des Asturies 1994, dans la catégorie Recherche scientifique et technique.</t>
         </is>
